--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,13 +91,13 @@
     <t>Ddr1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.9728844759036</v>
+        <v>0.014446</v>
       </c>
       <c r="H2">
-        <v>1.9728844759036</v>
+        <v>0.043338</v>
       </c>
       <c r="I2">
-        <v>0.9014713519050828</v>
+        <v>0.00401297433920606</v>
       </c>
       <c r="J2">
-        <v>0.9014713519050828</v>
+        <v>0.004012974339206059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.151646949453937</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N2">
-        <v>0.151646949453937</v>
+        <v>0.69148</v>
       </c>
       <c r="O2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q2">
-        <v>0.2991819123958102</v>
+        <v>0.003329706693333333</v>
       </c>
       <c r="R2">
-        <v>0.2991819123958102</v>
+        <v>0.02996736024</v>
       </c>
       <c r="S2">
-        <v>0.009398781750795476</v>
+        <v>5.26716383565162E-05</v>
       </c>
       <c r="T2">
-        <v>0.009398781750795476</v>
+        <v>5.267163835651618E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.9728844759036</v>
+        <v>0.014446</v>
       </c>
       <c r="H3">
-        <v>1.9728844759036</v>
+        <v>0.043338</v>
       </c>
       <c r="I3">
-        <v>0.9014713519050828</v>
+        <v>0.00401297433920606</v>
       </c>
       <c r="J3">
-        <v>0.9014713519050828</v>
+        <v>0.004012974339206059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.29552741007957</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N3">
-        <v>4.29552741007957</v>
+        <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q3">
-        <v>8.474579343164381</v>
+        <v>0.06231736185933334</v>
       </c>
       <c r="R3">
-        <v>8.474579343164381</v>
+        <v>0.560856256734</v>
       </c>
       <c r="S3">
-        <v>0.2662283994322016</v>
+        <v>0.0009857797846755773</v>
       </c>
       <c r="T3">
-        <v>0.2662283994322016</v>
+        <v>0.0009857797846755769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.9728844759036</v>
+        <v>0.014446</v>
       </c>
       <c r="H4">
-        <v>1.9728844759036</v>
+        <v>0.043338</v>
       </c>
       <c r="I4">
-        <v>0.9014713519050828</v>
+        <v>0.00401297433920606</v>
       </c>
       <c r="J4">
-        <v>0.9014713519050828</v>
+        <v>0.004012974339206059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.283070309117136</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N4">
-        <v>0.283070309117136</v>
+        <v>0.886007</v>
       </c>
       <c r="O4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q4">
-        <v>0.5584650184464308</v>
+        <v>0.004266419040666667</v>
       </c>
       <c r="R4">
-        <v>0.5584650184464308</v>
+        <v>0.038397771366</v>
       </c>
       <c r="S4">
-        <v>0.01754414490434776</v>
+        <v>6.748921195890243E-05</v>
       </c>
       <c r="T4">
-        <v>0.01754414490434776</v>
+        <v>6.748921195890241E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.9728844759036</v>
+        <v>0.014446</v>
       </c>
       <c r="H5">
-        <v>1.9728844759036</v>
+        <v>0.043338</v>
       </c>
       <c r="I5">
-        <v>0.9014713519050828</v>
+        <v>0.00401297433920606</v>
       </c>
       <c r="J5">
-        <v>0.9014713519050828</v>
+        <v>0.004012974339206059</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.496229936752384</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N5">
-        <v>0.496229936752384</v>
+        <v>2.150013</v>
       </c>
       <c r="O5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q5">
-        <v>0.9790043386974037</v>
+        <v>0.010353029266</v>
       </c>
       <c r="R5">
-        <v>0.9790043386974037</v>
+        <v>0.093177263394</v>
       </c>
       <c r="S5">
-        <v>0.03075536231055795</v>
+        <v>0.0001637714860846423</v>
       </c>
       <c r="T5">
-        <v>0.03075536231055795</v>
+        <v>0.0001637714860846423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.9728844759036</v>
+        <v>0.014446</v>
       </c>
       <c r="H6">
-        <v>1.9728844759036</v>
+        <v>0.043338</v>
       </c>
       <c r="I6">
-        <v>0.9014713519050828</v>
+        <v>0.00401297433920606</v>
       </c>
       <c r="J6">
-        <v>0.9014713519050828</v>
+        <v>0.004012974339206059</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.31853603120976</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N6">
-        <v>9.31853603120976</v>
+        <v>0.934958</v>
       </c>
       <c r="O6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q6">
-        <v>18.38439507412208</v>
+        <v>0.004502134422666666</v>
       </c>
       <c r="R6">
-        <v>18.38439507412208</v>
+        <v>0.040519209804</v>
       </c>
       <c r="S6">
-        <v>0.57754466350718</v>
+        <v>7.121792337382379E-05</v>
       </c>
       <c r="T6">
-        <v>0.57754466350718</v>
+        <v>7.121792337382378E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.215631522673943</v>
+        <v>0.014446</v>
       </c>
       <c r="H7">
-        <v>0.215631522673943</v>
+        <v>0.043338</v>
       </c>
       <c r="I7">
-        <v>0.09852864809491718</v>
+        <v>0.00401297433920606</v>
       </c>
       <c r="J7">
-        <v>0.09852864809491718</v>
+        <v>0.004012974339206059</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.151646949453937</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N7">
-        <v>0.151646949453937</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q7">
-        <v>0.03269986261961091</v>
+        <v>0.1689167842646667</v>
       </c>
       <c r="R7">
-        <v>0.03269986261961091</v>
+        <v>1.520251058382</v>
       </c>
       <c r="S7">
-        <v>0.001027264213874388</v>
+        <v>0.002672044294756598</v>
       </c>
       <c r="T7">
-        <v>0.001027264213874388</v>
+        <v>0.002672044294756597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.215631522673943</v>
+        <v>2.334718333333333</v>
       </c>
       <c r="H8">
-        <v>0.215631522673943</v>
+        <v>7.004155</v>
       </c>
       <c r="I8">
-        <v>0.09852864809491718</v>
+        <v>0.6485646380271775</v>
       </c>
       <c r="J8">
-        <v>0.09852864809491718</v>
+        <v>0.6485646380271775</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.29552741007957</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N8">
-        <v>4.29552741007957</v>
+        <v>0.69148</v>
       </c>
       <c r="O8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q8">
-        <v>0.9262511161231165</v>
+        <v>0.5381370110444444</v>
       </c>
       <c r="R8">
-        <v>0.9262511161231165</v>
+        <v>4.8432330994</v>
       </c>
       <c r="S8">
-        <v>0.02909812300201676</v>
+        <v>0.008512629081936977</v>
       </c>
       <c r="T8">
-        <v>0.02909812300201676</v>
+        <v>0.008512629081936975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.215631522673943</v>
+        <v>2.334718333333333</v>
       </c>
       <c r="H9">
-        <v>0.215631522673943</v>
+        <v>7.004155</v>
       </c>
       <c r="I9">
-        <v>0.09852864809491718</v>
+        <v>0.6485646380271775</v>
       </c>
       <c r="J9">
-        <v>0.09852864809491718</v>
+        <v>0.6485646380271775</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.283070309117136</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N9">
-        <v>0.283070309117136</v>
+        <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q9">
-        <v>0.06103888177871176</v>
+        <v>10.07154141062944</v>
       </c>
       <c r="R9">
-        <v>0.06103888177871176</v>
+        <v>90.643872695665</v>
       </c>
       <c r="S9">
-        <v>0.001917532793198205</v>
+        <v>0.1593187135477956</v>
       </c>
       <c r="T9">
-        <v>0.001917532793198205</v>
+        <v>0.1593187135477956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.215631522673943</v>
+        <v>2.334718333333333</v>
       </c>
       <c r="H10">
-        <v>0.215631522673943</v>
+        <v>7.004155</v>
       </c>
       <c r="I10">
-        <v>0.09852864809491718</v>
+        <v>0.6485646380271775</v>
       </c>
       <c r="J10">
-        <v>0.09852864809491718</v>
+        <v>0.6485646380271775</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.496229936752384</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N10">
-        <v>0.496229936752384</v>
+        <v>0.886007</v>
       </c>
       <c r="O10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q10">
-        <v>0.107002816858311</v>
+        <v>0.6895255954538889</v>
       </c>
       <c r="R10">
-        <v>0.107002816858311</v>
+        <v>6.205730359085</v>
       </c>
       <c r="S10">
-        <v>0.003361487044180308</v>
+        <v>0.01090740000433814</v>
       </c>
       <c r="T10">
-        <v>0.003361487044180308</v>
+        <v>0.01090740000433814</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,557 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.334718333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.004155</v>
+      </c>
+      <c r="I11">
+        <v>0.6485646380271775</v>
+      </c>
+      <c r="J11">
+        <v>0.6485646380271775</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.150013</v>
+      </c>
+      <c r="O11">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P11">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q11">
+        <v>1.673224922668333</v>
+      </c>
+      <c r="R11">
+        <v>15.059024304015</v>
+      </c>
+      <c r="S11">
+        <v>0.02646824664537306</v>
+      </c>
+      <c r="T11">
+        <v>0.02646824664537306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.334718333333333</v>
+      </c>
+      <c r="H12">
+        <v>7.004155</v>
+      </c>
+      <c r="I12">
+        <v>0.6485646380271775</v>
+      </c>
+      <c r="J12">
+        <v>0.6485646380271775</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.934958</v>
+      </c>
+      <c r="O12">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P12">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q12">
+        <v>0.7276211944988888</v>
+      </c>
+      <c r="R12">
+        <v>6.54859075049</v>
+      </c>
+      <c r="S12">
+        <v>0.01151002293803094</v>
+      </c>
+      <c r="T12">
+        <v>0.01151002293803094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.334718333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.004155</v>
+      </c>
+      <c r="I13">
+        <v>0.6485646380271775</v>
+      </c>
+      <c r="J13">
+        <v>0.6485646380271775</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N13">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O13">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P13">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q13">
+        <v>27.29981399906056</v>
+      </c>
+      <c r="R13">
+        <v>245.698325991545</v>
+      </c>
+      <c r="S13">
+        <v>0.4318476258097028</v>
+      </c>
+      <c r="T13">
+        <v>0.4318476258097028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.250659333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.751978</v>
+      </c>
+      <c r="I14">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="J14">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.69148</v>
+      </c>
+      <c r="O14">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P14">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q14">
+        <v>0.2882686386044445</v>
+      </c>
+      <c r="R14">
+        <v>2.59441774744</v>
+      </c>
+      <c r="S14">
+        <v>0.00456003572702028</v>
+      </c>
+      <c r="T14">
+        <v>0.00456003572702028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.215631522673943</v>
-      </c>
-      <c r="H11">
-        <v>0.215631522673943</v>
-      </c>
-      <c r="I11">
-        <v>0.09852864809491718</v>
-      </c>
-      <c r="J11">
-        <v>0.09852864809491718</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.31853603120976</v>
-      </c>
-      <c r="N11">
-        <v>9.31853603120976</v>
-      </c>
-      <c r="O11">
-        <v>0.6406689045488276</v>
-      </c>
-      <c r="P11">
-        <v>0.6406689045488276</v>
-      </c>
-      <c r="Q11">
-        <v>2.009370113501762</v>
-      </c>
-      <c r="R11">
-        <v>2.009370113501762</v>
-      </c>
-      <c r="S11">
-        <v>0.06312424104164753</v>
-      </c>
-      <c r="T11">
-        <v>0.06312424104164753</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.250659333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.751978</v>
+      </c>
+      <c r="I15">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="J15">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N15">
+        <v>12.941443</v>
+      </c>
+      <c r="O15">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P15">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q15">
+        <v>5.395112158250444</v>
+      </c>
+      <c r="R15">
+        <v>48.556009424254</v>
+      </c>
+      <c r="S15">
+        <v>0.08534367218024602</v>
+      </c>
+      <c r="T15">
+        <v>0.08534367218024602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.250659333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.751978</v>
+      </c>
+      <c r="I16">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="J16">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.886007</v>
+      </c>
+      <c r="O16">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P16">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q16">
+        <v>0.3693643079828889</v>
+      </c>
+      <c r="R16">
+        <v>3.324278771846</v>
+      </c>
+      <c r="S16">
+        <v>0.005842863964814684</v>
+      </c>
+      <c r="T16">
+        <v>0.005842863964814683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.250659333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.751978</v>
+      </c>
+      <c r="I17">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="J17">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.150013</v>
+      </c>
+      <c r="O17">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P17">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q17">
+        <v>0.8963112750793333</v>
+      </c>
+      <c r="R17">
+        <v>8.066801475714</v>
+      </c>
+      <c r="S17">
+        <v>0.01417848107473543</v>
+      </c>
+      <c r="T17">
+        <v>0.01417848107473543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.250659333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.751978</v>
+      </c>
+      <c r="I18">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="J18">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.934958</v>
+      </c>
+      <c r="O18">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P18">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q18">
+        <v>0.3897713163248889</v>
+      </c>
+      <c r="R18">
+        <v>3.507941846924</v>
+      </c>
+      <c r="S18">
+        <v>0.006165676351106941</v>
+      </c>
+      <c r="T18">
+        <v>0.006165676351106941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.250659333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.751978</v>
+      </c>
+      <c r="I19">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="J19">
+        <v>0.3474223876336165</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N19">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O19">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P19">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q19">
+        <v>14.62393415459356</v>
+      </c>
+      <c r="R19">
+        <v>131.615407391342</v>
+      </c>
+      <c r="S19">
+        <v>0.2313316583356931</v>
+      </c>
+      <c r="T19">
+        <v>0.2313316583356931</v>
       </c>
     </row>
   </sheetData>
